--- a/FedExApplication/src/TestFiles/CrudOperation.xlsx
+++ b/FedExApplication/src/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="65">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -197,6 +197,18 @@
   </si>
   <si>
     <t>320018032980</t>
+  </si>
+  <si>
+    <t>320018099707</t>
+  </si>
+  <si>
+    <t>320018099718</t>
+  </si>
+  <si>
+    <t>320018099740</t>
+  </si>
+  <si>
+    <t>320018110017</t>
   </si>
 </sst>
 </file>
@@ -627,7 +639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
@@ -753,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Q2" t="s">
         <v>55</v>
@@ -806,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q3" t="s">
         <v>56</v>
@@ -859,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q4" t="s">
         <v>57</v>

--- a/FedExApplication/src/TestFiles/CrudOperation.xlsx
+++ b/FedExApplication/src/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="66">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>320018110017</t>
+  </si>
+  <si>
+    <t>320018114229</t>
   </si>
 </sst>
 </file>
@@ -639,7 +642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
@@ -818,7 +821,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q3" t="s">
         <v>56</v>

--- a/FedExApplication/src/TestFiles/CrudOperation.xlsx
+++ b/FedExApplication/src/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="67">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>320018114229</t>
+  </si>
+  <si>
+    <t>320018117960</t>
   </si>
 </sst>
 </file>
@@ -768,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="Q2" t="s">
         <v>55</v>

--- a/FedExApplication/src/TestFiles/CrudOperation.xlsx
+++ b/FedExApplication/src/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="69">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>320018117960</t>
+  </si>
+  <si>
+    <t>320018151874</t>
+  </si>
+  <si>
+    <t>320018151885</t>
   </si>
 </sst>
 </file>
@@ -645,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
@@ -771,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q2" t="s">
         <v>55</v>
@@ -824,7 +830,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q3" t="s">
         <v>56</v>

--- a/FedExApplication/src/TestFiles/CrudOperation.xlsx
+++ b/FedExApplication/src/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="70">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>320018151885</t>
+  </si>
+  <si>
+    <t>320018167050</t>
   </si>
 </sst>
 </file>
@@ -777,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q2" t="s">
         <v>55</v>

--- a/FedExApplication/src/TestFiles/CrudOperation.xlsx
+++ b/FedExApplication/src/TestFiles/CrudOperation.xlsx
@@ -654,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>

--- a/FedExApplication/src/TestFiles/CrudOperation.xlsx
+++ b/FedExApplication/src/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="72">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t>320018167050</t>
+  </si>
+  <si>
+    <t>320018207767</t>
+  </si>
+  <si>
+    <t>320018207778</t>
   </si>
 </sst>
 </file>
@@ -654,7 +660,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
@@ -780,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q2" t="s">
         <v>55</v>
@@ -833,7 +839,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q3" t="s">
         <v>56</v>

--- a/FedExApplication/src/TestFiles/CrudOperation.xlsx
+++ b/FedExApplication/src/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="72">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>

--- a/FedExApplication/src/TestFiles/CrudOperation.xlsx
+++ b/FedExApplication/src/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="74">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t>320018207778</t>
+  </si>
+  <si>
+    <t>320018253468</t>
+  </si>
+  <si>
+    <t>320018253479</t>
   </si>
 </sst>
 </file>
@@ -660,7 +666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
@@ -786,7 +792,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q2" t="s">
         <v>55</v>
@@ -839,7 +845,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q3" t="s">
         <v>56</v>

--- a/FedExApplication/src/TestFiles/CrudOperation.xlsx
+++ b/FedExApplication/src/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="75">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>320018253479</t>
+  </si>
+  <si>
+    <t>320018257290</t>
   </si>
 </sst>
 </file>
@@ -666,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
@@ -792,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q2" t="s">
         <v>55</v>

--- a/FedExApplication/src/TestFiles/CrudOperation.xlsx
+++ b/FedExApplication/src/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="87">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -239,6 +239,42 @@
   </si>
   <si>
     <t>320018257290</t>
+  </si>
+  <si>
+    <t>320018261834</t>
+  </si>
+  <si>
+    <t>320018261867</t>
+  </si>
+  <si>
+    <t>320018262440</t>
+  </si>
+  <si>
+    <t>320018262473</t>
+  </si>
+  <si>
+    <t>320018331558</t>
+  </si>
+  <si>
+    <t>320018331569</t>
+  </si>
+  <si>
+    <t>320018331591</t>
+  </si>
+  <si>
+    <t>320018364240</t>
+  </si>
+  <si>
+    <t>320018364273</t>
+  </si>
+  <si>
+    <t>320018398400</t>
+  </si>
+  <si>
+    <t>320018398411</t>
+  </si>
+  <si>
+    <t>320018398444</t>
   </si>
 </sst>
 </file>
@@ -669,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
@@ -795,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="Q2" t="s">
         <v>55</v>
@@ -848,7 +884,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="Q3" t="s">
         <v>56</v>
@@ -901,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="Q4" t="s">
         <v>57</v>

--- a/FedExApplication/src/TestFiles/CrudOperation.xlsx
+++ b/FedExApplication/src/TestFiles/CrudOperation.xlsx
@@ -705,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>

--- a/FedExApplication/src/TestFiles/CrudOperation.xlsx
+++ b/FedExApplication/src/TestFiles/CrudOperation.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView tabRatio="614" windowHeight="9660" windowWidth="19815" xWindow="390" yWindow="510"/>
+    <workbookView xWindow="390" yWindow="510" windowWidth="19815" windowHeight="9660" tabRatio="614"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="50">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -145,42 +145,9 @@
     <t>FRG</t>
   </si>
   <si>
-    <t>$46.00</t>
-  </si>
-  <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>220112586437</t>
-  </si>
-  <si>
-    <t>$58.16</t>
-  </si>
-  <si>
-    <t>220112586448</t>
-  </si>
-  <si>
-    <t>220112662708</t>
-  </si>
-  <si>
-    <t>220112662719</t>
-  </si>
-  <si>
-    <t>320005323582</t>
-  </si>
-  <si>
-    <t>320005798835</t>
-  </si>
-  <si>
-    <t>320005798846</t>
-  </si>
-  <si>
-    <t>$76.67</t>
-  </si>
-  <si>
-    <t>320005798879</t>
-  </si>
-  <si>
     <t>$19.04</t>
   </si>
   <si>
@@ -188,84 +155,6 @@
   </si>
   <si>
     <t>$49.70</t>
-  </si>
-  <si>
-    <t>320018032946</t>
-  </si>
-  <si>
-    <t>320018032957</t>
-  </si>
-  <si>
-    <t>320018032980</t>
-  </si>
-  <si>
-    <t>320018099707</t>
-  </si>
-  <si>
-    <t>320018099718</t>
-  </si>
-  <si>
-    <t>320018099740</t>
-  </si>
-  <si>
-    <t>320018110017</t>
-  </si>
-  <si>
-    <t>320018114229</t>
-  </si>
-  <si>
-    <t>320018117960</t>
-  </si>
-  <si>
-    <t>320018151874</t>
-  </si>
-  <si>
-    <t>320018151885</t>
-  </si>
-  <si>
-    <t>320018167050</t>
-  </si>
-  <si>
-    <t>320018207767</t>
-  </si>
-  <si>
-    <t>320018207778</t>
-  </si>
-  <si>
-    <t>320018253468</t>
-  </si>
-  <si>
-    <t>320018253479</t>
-  </si>
-  <si>
-    <t>320018257290</t>
-  </si>
-  <si>
-    <t>320018261834</t>
-  </si>
-  <si>
-    <t>320018261867</t>
-  </si>
-  <si>
-    <t>320018262440</t>
-  </si>
-  <si>
-    <t>320018262473</t>
-  </si>
-  <si>
-    <t>320018331558</t>
-  </si>
-  <si>
-    <t>320018331569</t>
-  </si>
-  <si>
-    <t>320018331591</t>
-  </si>
-  <si>
-    <t>320018364240</t>
-  </si>
-  <si>
-    <t>320018364273</t>
   </si>
   <si>
     <t>320018398400</t>
@@ -334,29 +223,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="8" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="8" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="2" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -409,7 +298,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -423,10 +312,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -584,7 +473,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -593,13 +482,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -609,7 +498,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -618,7 +507,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -627,7 +516,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -637,12 +526,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -673,7 +562,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -692,7 +581,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -704,29 +593,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="1" width="14.0" collapsed="true"/>
-    <col min="18" max="18" style="2" width="9.140625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14" style="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9.140625" style="2" collapsed="1"/>
+    <col min="19" max="19" width="35.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -821,8 +710,8 @@
       <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="6">
-        <v>43.89</v>
+      <c r="M2" t="s">
+        <v>44</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>28</v>
@@ -831,13 +720,13 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="Q2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S2" s="3"/>
     </row>
@@ -874,8 +763,8 @@
       <c r="L3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="6">
-        <v>56.05</v>
+      <c r="M3" t="s">
+        <v>45</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>30</v>
@@ -884,13 +773,13 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="Q3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="R3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S3" s="3"/>
     </row>
@@ -927,8 +816,8 @@
       <c r="L4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="6">
-        <v>82.49</v>
+      <c r="M4" t="s">
+        <v>46</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>29</v>
@@ -937,13 +826,13 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="Q4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S4" s="3"/>
     </row>
@@ -1184,35 +1073,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R2:R3">
-    <cfRule dxfId="6" operator="equal" priority="7" type="cellIs">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:R1048576 R1:R7">
-    <cfRule dxfId="5" operator="equal" priority="5" type="cellIs">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule dxfId="4" operator="equal" priority="6" type="cellIs">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8">
-    <cfRule dxfId="3" operator="equal" priority="3" type="cellIs">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule dxfId="2" operator="equal" priority="4" type="cellIs">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9">
-    <cfRule dxfId="1" operator="equal" priority="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule dxfId="0" operator="equal" priority="2" type="cellIs">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FedExApplication/src/TestFiles/CrudOperation.xlsx
+++ b/FedExApplication/src/TestFiles/CrudOperation.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="510" windowWidth="19815" windowHeight="9660" tabRatio="614"/>
+    <workbookView tabRatio="614" windowHeight="9660" windowWidth="19815" xWindow="390" yWindow="510"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="51">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>320018398444</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -223,29 +226,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="8" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="8" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -298,7 +301,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -312,10 +315,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -473,7 +476,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -482,13 +485,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -498,7 +501,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -507,7 +510,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -516,7 +519,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -526,12 +529,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -562,7 +565,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -581,7 +584,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -593,8 +596,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
@@ -602,20 +605,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9.140625" style="2" collapsed="1"/>
-    <col min="19" max="19" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="18" max="18" style="2" width="9.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="35.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -726,7 +729,7 @@
         <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="S2" s="3"/>
     </row>
@@ -779,7 +782,7 @@
         <v>45</v>
       </c>
       <c r="R3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="S3" s="3"/>
     </row>
@@ -832,7 +835,7 @@
         <v>46</v>
       </c>
       <c r="R4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="S4" s="3"/>
     </row>
@@ -1073,35 +1076,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R2:R3">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule dxfId="6" operator="equal" priority="7" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:R1048576 R1:R7">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule dxfId="5" operator="equal" priority="5" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule dxfId="4" operator="equal" priority="6" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule dxfId="3" operator="equal" priority="3" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule dxfId="2" operator="equal" priority="4" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule dxfId="1" operator="equal" priority="1" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule dxfId="0" operator="equal" priority="2" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/FedExApplication/src/TestFiles/CrudOperation.xlsx
+++ b/FedExApplication/src/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="53">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>320018475104</t>
+  </si>
+  <si>
+    <t>320018475115</t>
   </si>
 </sst>
 </file>
@@ -597,7 +603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
@@ -723,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q2" t="s">
         <v>44</v>
@@ -829,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q4" t="s">
         <v>46</v>

--- a/FedExApplication/src/TestFiles/CrudOperation.xlsx
+++ b/FedExApplication/src/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>320018475115</t>
+  </si>
+  <si>
+    <t>320018514701</t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
@@ -782,7 +785,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q3" t="s">
         <v>45</v>

--- a/FedExApplication/src/TestFiles/CrudOperation.xlsx
+++ b/FedExApplication/src/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="56">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>320018514701</t>
+  </si>
+  <si>
+    <t>320018575471</t>
+  </si>
+  <si>
+    <t>320018575840</t>
   </si>
 </sst>
 </file>
@@ -785,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q3" t="s">
         <v>45</v>

--- a/FedExApplication/src/TestFiles/CrudOperation.xlsx
+++ b/FedExApplication/src/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="62">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -182,6 +182,24 @@
   </si>
   <si>
     <t>320018575840</t>
+  </si>
+  <si>
+    <t>320018606842</t>
+  </si>
+  <si>
+    <t>$43.36</t>
+  </si>
+  <si>
+    <t>320018606875</t>
+  </si>
+  <si>
+    <t>320018621636</t>
+  </si>
+  <si>
+    <t>$76.67</t>
+  </si>
+  <si>
+    <t>320018621669</t>
   </si>
 </sst>
 </file>
@@ -612,7 +630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
@@ -791,7 +809,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q3" t="s">
         <v>45</v>
@@ -844,13 +862,13 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="Q4" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="R4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="S4" s="3"/>
     </row>
@@ -896,9 +914,15 @@
       <c r="O5" s="3">
         <v>8</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="P5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" t="s">
+        <v>43</v>
+      </c>
       <c r="S5" s="3"/>
     </row>
     <row r="6" spans="1:19">

--- a/FedExApplication/src/TestFiles/CrudOperation.xlsx
+++ b/FedExApplication/src/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="67">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -200,6 +200,21 @@
   </si>
   <si>
     <t>320018621669</t>
+  </si>
+  <si>
+    <t>320018631291</t>
+  </si>
+  <si>
+    <t>320018631306</t>
+  </si>
+  <si>
+    <t>320018631339</t>
+  </si>
+  <si>
+    <t>320018638712</t>
+  </si>
+  <si>
+    <t>320018639318</t>
   </si>
 </sst>
 </file>
@@ -756,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="Q2" t="s">
         <v>44</v>
@@ -809,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q3" t="s">
         <v>45</v>
@@ -915,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="Q5" t="s">
         <v>57</v>

--- a/FedExApplication/src/TestFiles/CrudOperation.xlsx
+++ b/FedExApplication/src/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="87">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -215,6 +215,66 @@
   </si>
   <si>
     <t>320018639318</t>
+  </si>
+  <si>
+    <t>320018649466</t>
+  </si>
+  <si>
+    <t>320018649477</t>
+  </si>
+  <si>
+    <t>320018649503</t>
+  </si>
+  <si>
+    <t>$50.29</t>
+  </si>
+  <si>
+    <t>320018649514</t>
+  </si>
+  <si>
+    <t>$49.43</t>
+  </si>
+  <si>
+    <t>320018680407</t>
+  </si>
+  <si>
+    <t>320018690772</t>
+  </si>
+  <si>
+    <t>320018704095</t>
+  </si>
+  <si>
+    <t>320018704121</t>
+  </si>
+  <si>
+    <t>320018704132</t>
+  </si>
+  <si>
+    <t>320018730666</t>
+  </si>
+  <si>
+    <t>320018730699</t>
+  </si>
+  <si>
+    <t>320018736620</t>
+  </si>
+  <si>
+    <t>320018736631</t>
+  </si>
+  <si>
+    <t>320018764447</t>
+  </si>
+  <si>
+    <t>320018764881</t>
+  </si>
+  <si>
+    <t>320018766656</t>
+  </si>
+  <si>
+    <t>320018787850</t>
+  </si>
+  <si>
+    <t>320018787860</t>
   </si>
 </sst>
 </file>
@@ -771,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="Q2" t="s">
         <v>44</v>
@@ -824,7 +884,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="Q3" t="s">
         <v>45</v>
@@ -877,13 +937,13 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="Q4" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="R4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="S4" s="3"/>
     </row>
@@ -930,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="Q5" t="s">
         <v>57</v>

--- a/FedExApplication/src/TestFiles/CrudOperation.xlsx
+++ b/FedExApplication/src/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="90">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -275,6 +275,15 @@
   </si>
   <si>
     <t>320018787860</t>
+  </si>
+  <si>
+    <t>320018812762</t>
+  </si>
+  <si>
+    <t>320018812800</t>
+  </si>
+  <si>
+    <t>320018812810</t>
   </si>
 </sst>
 </file>
@@ -884,7 +893,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q3" t="s">
         <v>45</v>
@@ -937,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Q4" t="s">
         <v>46</v>
@@ -990,7 +999,7 @@
         <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Q5" t="s">
         <v>57</v>

--- a/FedExApplication/src/TestFiles/CrudOperation.xlsx
+++ b/FedExApplication/src/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="91">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>320018812810</t>
+  </si>
+  <si>
+    <t>320018501311</t>
   </si>
 </sst>
 </file>
@@ -714,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
@@ -946,13 +949,13 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q4" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="R4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="S4" s="3"/>
     </row>

--- a/FedExApplication/src/TestFiles/CrudOperation.xlsx
+++ b/FedExApplication/src/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="99">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -287,6 +287,30 @@
   </si>
   <si>
     <t>320018501311</t>
+  </si>
+  <si>
+    <t>320018539885</t>
+  </si>
+  <si>
+    <t>320018539896</t>
+  </si>
+  <si>
+    <t>320018539922</t>
+  </si>
+  <si>
+    <t>320018539933</t>
+  </si>
+  <si>
+    <t>$18.40</t>
+  </si>
+  <si>
+    <t>320018556693</t>
+  </si>
+  <si>
+    <t>$9.00</t>
+  </si>
+  <si>
+    <t>320018556708</t>
   </si>
 </sst>
 </file>
@@ -843,13 +867,13 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="Q2" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="R2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="S2" s="3"/>
     </row>
@@ -896,7 +920,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Q3" t="s">
         <v>45</v>
@@ -949,10 +973,10 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="Q4" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="R4" t="s">
         <v>43</v>
@@ -1002,7 +1026,7 @@
         <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Q5" t="s">
         <v>57</v>

--- a/FedExApplication/src/TestFiles/CrudOperation.xlsx
+++ b/FedExApplication/src/TestFiles/CrudOperation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="105">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -311,6 +311,24 @@
   </si>
   <si>
     <t>320018556708</t>
+  </si>
+  <si>
+    <t>$15.49</t>
+  </si>
+  <si>
+    <t>$43.07</t>
+  </si>
+  <si>
+    <t>320018567576</t>
+  </si>
+  <si>
+    <t>320018568252</t>
+  </si>
+  <si>
+    <t>320018569086</t>
+  </si>
+  <si>
+    <t>320018590118</t>
   </si>
 </sst>
 </file>
@@ -741,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
@@ -867,13 +885,13 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Q2" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="S2" s="3"/>
     </row>
@@ -920,7 +938,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="Q3" t="s">
         <v>45</v>
@@ -1026,10 +1044,10 @@
         <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Q5" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="R5" t="s">
         <v>43</v>
